--- a/data/trans_bre/IMC_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IMC_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-15,98</t>
+          <t>-24,82</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,44</t>
+          <t>-17,69</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-22,48</t>
+          <t>-31,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-37,53%</t>
+          <t>-24,92</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-21,54%</t>
+          <t>-49,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-51,09%</t>
+          <t>-38,24%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-59,33%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-49,08%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 2,61</t>
+          <t>-46,87; 0,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,96; 9,14</t>
+          <t>-38,86; 5,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-38,65; -4,04</t>
+          <t>-54,89; -10,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-62,93; 7,58</t>
+          <t>-46,58; -0,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-55,59; 40,62</t>
+          <t>-73,64; 2,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-72,51; -9,79</t>
+          <t>-67,66; 18,64</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-81,46; -20,97</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-75,54; -3,7</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,27</t>
+          <t>-8,78</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>-12,35</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-13,53</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,47%</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,74%</t>
+          <t>-18,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,82%</t>
+          <t>-23,74%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-29,49%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,63%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-26,16; 11,72</t>
+          <t>-36,61; 14,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,7; 14,65</t>
+          <t>-37,57; 13,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,25; 18,39</t>
+          <t>-39,03; 10,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-42,81; 33,91</t>
+          <t>-27,67; 31,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,74; 40,05</t>
+          <t>-56,97; 46,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,27; 58,49</t>
+          <t>-56,38; 37,59</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-63,88; 36,82</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-47,95; 146,47</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-13,65</t>
+          <t>-22,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-19,52</t>
+          <t>-22,94</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-15,95</t>
+          <t>-14,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-22,46%</t>
+          <t>-13,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-31,3%</t>
+          <t>-36,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-23,34%</t>
+          <t>-37,3%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-23,72%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-23,16%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-28,05; 3,05</t>
+          <t>-37,82; -5,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-31,4; -4,34</t>
+          <t>-37,81; -6,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-29,82; -3,52</t>
+          <t>-30,93; 1,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-39,39; 6,68</t>
+          <t>-29,56; 4,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-45,59; -8,67</t>
+          <t>-54,33; -11,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,77; -5,94</t>
+          <t>-55,08; -12,12</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-44,44; 2,76</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-42,62; 9,02</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-16,39</t>
+          <t>-8,76</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-21,58</t>
+          <t>-9,82</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-23,99</t>
+          <t>-16,35</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-25,96%</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-31,34%</t>
+          <t>-15,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-34,57%</t>
+          <t>-15,49%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-25,08%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-4,94%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,31; -4,56</t>
+          <t>-23,15; 5,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,11; -10,66</t>
+          <t>-22,8; 6,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-35,38; -12,96</t>
+          <t>-31,35; -1,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-41,38; -9,23</t>
+          <t>-19,79; 11,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,35; -16,05</t>
+          <t>-36,07; 11,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,84; -19,85</t>
+          <t>-33,57; 11,23</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-43,88; -3,69</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-29,65; 24,77</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-10,37</t>
+          <t>-13,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-9,55</t>
+          <t>-13,79</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,68</t>
+          <t>-7,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-15,04%</t>
+          <t>-8,63</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-14,67%</t>
+          <t>-19,52%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-11,7%</t>
+          <t>-20,72%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-11,03%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-12,42%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-24,64; 3,65</t>
+          <t>-31,47; 7,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-23,14; 6,37</t>
+          <t>-32,76; 7,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,98; 7,14</t>
+          <t>-25,97; 13,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-32,79; 5,93</t>
+          <t>-26,46; 10,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-33,53; 10,14</t>
+          <t>-41,05; 11,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-29,47; 12,06</t>
+          <t>-43,43; 13,24</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-34,48; 21,85</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-35,29; 17,91</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-16,28</t>
+          <t>-10,08</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-15,71</t>
+          <t>-10,99</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-31,6</t>
+          <t>-19,27</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-19,32%</t>
+          <t>-9,05</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-19,09%</t>
+          <t>-11,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-36,94%</t>
+          <t>-12,89%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-21,46%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-11,43%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,35; -2,61</t>
+          <t>-28,67; 7,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,5; -2,98</t>
+          <t>-27,7; 7,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-58,28; -12,67</t>
+          <t>-37,12; -2,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,63; -4,03</t>
+          <t>-29,04; 11,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,62; -4,06</t>
+          <t>-32,48; 9,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-67,71; -15,76</t>
+          <t>-30,13; 9,29</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-40,63; -3,65</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-33,65; 16,58</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-13,78</t>
+          <t>-15,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-13,12</t>
+          <t>-14,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-15,71</t>
+          <t>-16,34</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-22,39%</t>
+          <t>-8,32</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-21,92%</t>
+          <t>-24,6%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-25,38%</t>
+          <t>-24,08%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-26,38%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-14,41%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,32; -7,12</t>
+          <t>-23,19; -5,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-19,02; -6,83</t>
+          <t>-22,94; -6,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-23,12; -8,69</t>
+          <t>-24,01; -6,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-30,64; -12,48</t>
+          <t>-16,69; 2,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-30,11; -12,09</t>
+          <t>-34,72; -10,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-35,82; -15,93</t>
+          <t>-34,89; -11,17</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-36,96; -12,85</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-26,2; 5,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/IMC_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IMC_R2-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-24,82</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-17,69</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-31,17</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-24,92</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-49,09%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-38,24%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-59,33%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-49,08%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-25.03533510506727</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-14.47665631234077</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-30.67184509032078</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-25.38380564351503</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.5264885534465368</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.3231608673746479</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.5981447163382285</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.4938223881123304</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-46,87; 0,4</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-38,86; 5,75</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-54,89; -10,06</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-46,58; -0,92</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-73,64; 2,87</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-67,66; 18,64</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-81,46; -20,97</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-75,54; -3,7</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-46.81183934418354</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-35.68210295568471</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-54.32810094994169</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-46.7656892855648</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.7717541526909485</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.6463629742396266</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.8194988790020716</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.7556785916966101</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-2.335195819906989</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>11.08031810690149</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-8.833447504157034</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-1.419717063842924</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>-0.02966282213133593</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.4019539107050339</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>-0.1963175261287263</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>-0.04173421817575557</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-8,78</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-12,35</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-13,53</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-18,81%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-23,74%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-29,49%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-36,61; 14,28</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-37,57; 13,5</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-39,03; 10,69</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-27,67; 31,76</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-56,97; 46,77</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-56,38; 37,59</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-63,88; 36,82</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-47,95; 146,47</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-12.87906627710229</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-12.27967135865624</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-13.75698207085532</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.271794297374095</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.245374766332931</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.2319797875607717</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.2933925884631057</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.006627908820596795</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-22,67</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-22,94</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-14,34</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-13,83</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-36,36%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-37,3%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-23,72%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-23,16%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-38.18493382207368</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-37.05712433553575</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-39.17910812859252</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-27.43714660414225</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.5706123315277112</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.5541860120047498</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.6362909330130027</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4901901292997052</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-37,82; -5,83</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-37,81; -6,15</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-30,93; 1,34</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-29,56; 4,15</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-54,33; -11,58</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-55,08; -12,12</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-44,44; 2,76</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-42,62; 9,02</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>13.20245732969788</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>12.82150138703495</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>9.972657603565359</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>31.81672437602755</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.3843821765329711</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.3156086982283693</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.3253520491308309</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.428184414748984</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +827,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-8,76</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-9,82</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-16,35</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-2,77</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-15,15%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-15,49%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-25,08%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-4,94%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-18.47289806573251</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-21.28570356753023</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-13.36074768892242</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-13.74721841593429</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.3186397827951362</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.3571348017120288</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.2235945779471706</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.2345922726846502</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-23,15; 5,44</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-22,8; 6,59</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-31,35; -1,86</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-19,79; 11,72</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-36,07; 11,04</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-33,57; 11,23</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-43,88; -3,69</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-29,65; 24,77</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-34.69254698192928</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-36.64871323897724</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-30.22288748036769</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-29.08861928032062</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.5134789901200315</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.5415812589773727</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.4324566392556527</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.433288008178499</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-0.6226967352399886</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-4.708825090695832</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.940629218186372</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.050398913282108</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>-0.01312038879595365</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>-0.09227195206332454</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.06305806231074577</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.08734178212222025</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-13,51</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-13,79</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-7,57</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-8,63</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-19,52%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-20,72%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-11,03%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-12,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-31,47; 7,03</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-32,76; 7,48</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-25,97; 13,57</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-26,46; 10,91</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-41,05; 11,1</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-43,43; 13,24</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-34,48; 21,85</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-35,29; 17,91</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-10.31931323845883</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-10.43611303931157</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-18.18005202477676</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-4.056210576901364</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.1772908431243901</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.1603506540378404</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2728798802928843</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.07131742799966627</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-10,08</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-10,99</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-19,27</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-9,05</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-11,69%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-12,89%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-21,46%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-11,43%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-24.80065172615422</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-23.78210941065736</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-32.59388609285199</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-20.55699262312421</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3693207668466055</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3372247570151761</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.4476488929595228</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3097250153850136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-28,67; 7,66</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-27,7; 7,49</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-37,12; -2,6</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-29,04; 11,89</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-32,48; 9,37</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-30,13; 9,29</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-40,63; -3,65</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-33,65; 16,58</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.804370556996491</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.820719057684829</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-3.583373702062046</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>10.47612983794296</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.09507518542924064</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.09760818952845207</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>-0.06036631436203759</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2228952399732528</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1027,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-15,04</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-14,81</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-16,34</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-8,32</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-24,6%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-24,08%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-26,38%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-14,41%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-12.60332170331853</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-14.37636042444615</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-6.593494929761123</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-7.946627414017038</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.1828798244087765</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.2167045277088882</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.09794215500627818</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>-0.1157391177281046</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-23,19; -5,76</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-22,94; -6,17</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-24,01; -6,78</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-16,69; 2,99</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-34,72; -10,58</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-34,89; -11,17</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-36,96; -12,85</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-26,2; 5,63</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-30.9066196169826</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-33.31045828081489</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-25.52393292627246</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-25.82684048101109</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.4033585048049374</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.4517761007080309</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.3356584952197397</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.3471863331343409</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>7.84530015818362</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>7.748542932593814</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>14.27434782884403</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>11.4915827135939</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.1263757749345507</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.1188071440240725</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.2532002549757677</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.1964825610183631</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-11.14996207145273</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-9.314014480182543</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-18.1056466468659</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-7.250360787118471</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.1271122128100071</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.1100516295707256</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-0.2038981648506852</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>-0.0913794856202865</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-30.31059242387665</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-25.77352208818441</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-36.53186840960065</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-27.31986846873182</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.33509098067635</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.2933865936224124</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.4075168113754871</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.3207326775806473</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>5.139118328488301</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>10.45508054817016</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.1467575604568259</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>12.5200892652013</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.0583211194872278</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.1278097322972987</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>-0.003768091207307061</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>0.1719021429156795</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-15.88158521597997</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-14.02519179181955</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-16.29718911767641</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-8.21874218028713</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.2596735554202422</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.2291816194536318</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>-0.2644785265108636</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>-0.1429054800365066</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-23.80837510204031</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-22.24060382937519</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-24.0344306878958</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-16.70106274575882</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.3600118599762201</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.3406657810162421</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.3692576614631404</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.2647211014551138</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-7.216288803619514</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-5.526395477304926</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-6.864299377425801</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>3.24301024582499</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>-0.1281538127254604</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>-0.1050787322523771</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>-0.1261071491982184</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.06686464539470298</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1325,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
